--- a/data/trans_dic/P36BPD04_R2_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R2_2023-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1018065172224384</v>
+        <v>0.1002484613974963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1364128572571759</v>
+        <v>0.1372025100496504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1271598275314237</v>
+        <v>0.1282257188754625</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1795198616114316</v>
+        <v>0.1750224314642809</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1874895904439478</v>
+        <v>0.1887699194359179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1727181893967363</v>
+        <v>0.1715974771537703</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1509606732456134</v>
+        <v>0.1509606732456133</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1508024473747332</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1270325270755771</v>
+        <v>0.1270684225686174</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1335440589960783</v>
+        <v>0.1339760336210975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1352340280612548</v>
+        <v>0.1369295929790958</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.18211195332616</v>
+        <v>0.1789709523599288</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1704915917617731</v>
+        <v>0.1690614642097177</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1665438679292778</v>
+        <v>0.1672497598076283</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1537368050432017</v>
+        <v>0.15181967681106</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.160779697629995</v>
+        <v>0.1599083920146402</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1616415323878955</v>
+        <v>0.1625481640487831</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2063738306446414</v>
+        <v>0.2044895696787369</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2012683732506323</v>
+        <v>0.2010102547540814</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1962316138488617</v>
+        <v>0.1955923025678704</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.3214402315954293</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3300101925702332</v>
+        <v>0.3300101925702331</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.32556900872251</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2900000319213696</v>
+        <v>0.2883722721724978</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3027023693743831</v>
+        <v>0.3014299521227373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3075371928666986</v>
+        <v>0.3058439603416106</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3578129553163577</v>
+        <v>0.3532502728013395</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3612457284899937</v>
+        <v>0.3594442081623235</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3477066270653311</v>
+        <v>0.3484946762474576</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.2046127605563687</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2043253781856116</v>
+        <v>0.2043253781856117</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1887396317174086</v>
+        <v>0.1893254506937033</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1931913412884002</v>
+        <v>0.1927151913475535</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1943496347582044</v>
+        <v>0.1942865786973302</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2191994952665011</v>
+        <v>0.2189821028826427</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2168814553077058</v>
+        <v>0.2161084056594385</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2142598840335228</v>
+        <v>0.2141091715098374</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>50775</v>
+        <v>49998</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>84987</v>
+        <v>85479</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>142642</v>
+        <v>143837</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>89534</v>
+        <v>87291</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>116808</v>
+        <v>117606</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>193747</v>
+        <v>192490</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>121969</v>
+        <v>122003</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>148942</v>
+        <v>149424</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>280670</v>
+        <v>284189</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>174852</v>
+        <v>171837</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>190150</v>
+        <v>188555</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>345652</v>
+        <v>347117</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>160882</v>
+        <v>158876</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>168350</v>
+        <v>167437</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>338406</v>
+        <v>340304</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>215966</v>
+        <v>213994</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>210744</v>
+        <v>210474</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>410823</v>
+        <v>409484</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>283019</v>
+        <v>281431</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>274636</v>
+        <v>273481</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>579157</v>
+        <v>575968</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>349200</v>
+        <v>344747</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>327751</v>
+        <v>326116</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>654804</v>
+        <v>656288</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>657056</v>
+        <v>659096</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>713394</v>
+        <v>711635</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1394257</v>
+        <v>1393805</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>763096</v>
+        <v>762339</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>800874</v>
+        <v>798019</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1537092</v>
+        <v>1536011</v>
       </c>
     </row>
     <row r="24">
